--- a/src/changes.xlsx
+++ b/src/changes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="63">
   <si>
     <t>cp -v</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>pybossa/pybossa/themes/default/templates/applications/new.html</t>
+  </si>
+  <si>
+    <t>pybossa/pybossa/cache/apps.py_bak</t>
+  </si>
+  <si>
+    <t>pybossa/pybossa/cache/apps.py</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -593,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -607,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -621,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -635,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -649,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -663,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -677,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -691,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -705,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -719,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -733,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -747,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -761,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -775,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -789,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -803,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -817,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -831,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -845,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -859,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -873,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -887,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -901,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -915,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -929,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -943,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -957,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -971,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -985,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -999,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1013,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1027,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1041,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1055,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -1069,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -1083,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1097,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -1111,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -1125,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
         <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -1139,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -1153,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -1167,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -1181,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -1195,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -1209,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -1223,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -1237,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
         <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -1251,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -1265,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -1279,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -1293,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -1307,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -1321,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
         <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -1335,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
         <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -1349,12 +1355,40 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
         <v>25</v>
       </c>
     </row>
